--- a/writing/Table1.xlsx
+++ b/writing/Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2208DF13-8070-4DA3-A19F-33E448E47755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A819D32-30B2-4B10-B1FA-62CFD14225FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17604" yWindow="2028" windowWidth="17280" windowHeight="8964" xr2:uid="{32E11D0F-C2D5-496D-A17A-BB60A8075FD3}"/>
+    <workbookView xWindow="13296" yWindow="2004" windowWidth="17280" windowHeight="8964" xr2:uid="{32E11D0F-C2D5-496D-A17A-BB60A8075FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Variable</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Cell Membrane Stability (Cold)</t>
   </si>
   <si>
-    <t>Chlorophyll Content (Heat)</t>
-  </si>
-  <si>
-    <t>Chlorophyll Content (Cold)</t>
-  </si>
-  <si>
     <t>Photosynthetic Rate (Heat)</t>
   </si>
   <si>
@@ -110,19 +104,46 @@
   </si>
   <si>
     <t>North</t>
+  </si>
+  <si>
+    <t>Chlorophyll Fluorescence (Heat)</t>
+  </si>
+  <si>
+    <t>Chlorophyll Fluorescence (Cold)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -141,19 +162,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,223 +669,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F32102E-11BC-48ED-855E-8F81D68DDEB9}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="E4" s="20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="21">
+        <v>4.1790000000000003E-10</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="21">
+        <v>6.1399999999999999E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.442</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="20">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="22">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="22">
+        <v>2.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E10" s="20">
+        <v>6.8499999999999995E-4</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="20">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E11" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="21">
+        <v>8.7100000000000006E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E12" s="3">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E13" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
+      <c r="B14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.1790000000000003E-10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3">
-        <v>6.1399999999999999E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>0.64300000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0.442</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>3.2800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>3.6999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="E14" s="5">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.496</v>
       </c>
     </row>
   </sheetData>
